--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보 " sheetId="1" r:id="rId1"/>
-    <sheet name="학생정보  (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="학과정보" sheetId="4" r:id="rId2"/>
+    <sheet name="학생정보  (2)" sheetId="2" r:id="rId3"/>
+    <sheet name="학생성적정보" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="446">
   <si>
     <t>국어국문</t>
   </si>
@@ -1304,6 +1305,142 @@
   </si>
   <si>
     <t>학과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미술</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D002</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>D004</t>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D005</t>
+  </si>
+  <si>
+    <t>학과명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이몽룡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성춘향</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임꺽정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장영실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조용필</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태진아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나훈아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김호중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관 1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관 1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>별관 3-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>별관 3-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT관 1호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1311,7 +1448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1332,6 +1469,13 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1358,12 +1502,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1645,23 +1793,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.25" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -1680,8 +1829,14 @@
       <c r="F1" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>404</v>
       </c>
@@ -1701,8 +1856,12 @@
       <c r="F2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H2" t="str">
+        <f>VLOOKUP(F2,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>400</v>
       </c>
@@ -1717,13 +1876,17 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3" t="str">
+        <f>VLOOKUP(F3,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>396</v>
       </c>
@@ -1738,13 +1901,17 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4" t="str">
+        <f>VLOOKUP(F4,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>392</v>
       </c>
@@ -1764,8 +1931,12 @@
       <c r="F5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5" t="str">
+        <f>VLOOKUP(F5,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>388</v>
       </c>
@@ -1780,13 +1951,17 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H6" t="str">
+        <f>VLOOKUP(F6,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>384</v>
       </c>
@@ -1801,13 +1976,17 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H7" t="str">
+        <f>VLOOKUP(F7,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>380</v>
       </c>
@@ -1822,13 +2001,17 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H8" t="str">
+        <f>VLOOKUP(F8,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>376</v>
       </c>
@@ -1843,13 +2026,17 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H9" t="str">
+        <f>VLOOKUP(F9,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>372</v>
       </c>
@@ -1864,13 +2051,17 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H10" t="str">
+        <f>VLOOKUP(F10,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>368</v>
       </c>
@@ -1885,13 +2076,17 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H11" t="str">
+        <f>VLOOKUP(F11,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>364</v>
       </c>
@@ -1911,8 +2106,12 @@
       <c r="F12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H12" t="str">
+        <f>VLOOKUP(F12,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>360</v>
       </c>
@@ -1927,13 +2126,17 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>VLOOKUP(F13,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>356</v>
       </c>
@@ -1948,13 +2151,17 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H14" t="str">
+        <f>VLOOKUP(F14,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>352</v>
       </c>
@@ -1969,13 +2176,17 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H15" t="str">
+        <f>VLOOKUP(F15,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>348</v>
       </c>
@@ -1990,13 +2201,17 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H16" t="str">
+        <f>VLOOKUP(F16,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>344</v>
       </c>
@@ -2016,8 +2231,12 @@
       <c r="F17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H17" t="str">
+        <f>VLOOKUP(F17,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>340</v>
       </c>
@@ -2032,13 +2251,17 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H18" t="str">
+        <f>VLOOKUP(F18,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>336</v>
       </c>
@@ -2053,13 +2276,17 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H19" t="str">
+        <f>VLOOKUP(F19,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>332</v>
       </c>
@@ -2079,8 +2306,12 @@
       <c r="F20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H20" t="str">
+        <f>VLOOKUP(F20,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>328</v>
       </c>
@@ -2095,13 +2326,17 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H21" t="str">
+        <f>VLOOKUP(F21,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>324</v>
       </c>
@@ -2116,13 +2351,17 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H22" t="str">
+        <f>VLOOKUP(F22,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>320</v>
       </c>
@@ -2137,13 +2376,17 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H23" t="str">
+        <f>VLOOKUP(F23,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>316</v>
       </c>
@@ -2158,13 +2401,17 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H24" t="str">
+        <f>VLOOKUP(F24,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>312</v>
       </c>
@@ -2179,13 +2426,17 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H25" t="str">
+        <f>VLOOKUP(F25,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>308</v>
       </c>
@@ -2205,8 +2456,12 @@
       <c r="F26" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H26" t="str">
+        <f>VLOOKUP(F26,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>304</v>
       </c>
@@ -2221,13 +2476,17 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H27" t="str">
+        <f>VLOOKUP(F27,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>300</v>
       </c>
@@ -2247,8 +2506,12 @@
       <c r="F28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H28" t="str">
+        <f>VLOOKUP(F28,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>296</v>
       </c>
@@ -2263,13 +2526,17 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H29" t="str">
+        <f>VLOOKUP(F29,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>292</v>
       </c>
@@ -2284,13 +2551,17 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H30" t="str">
+        <f>VLOOKUP(F30,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>288</v>
       </c>
@@ -2305,13 +2576,17 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H31" t="str">
+        <f>VLOOKUP(F31,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>284</v>
       </c>
@@ -2326,13 +2601,17 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H32" t="str">
+        <f>VLOOKUP(F32,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>280</v>
       </c>
@@ -2347,13 +2626,17 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H33" t="str">
+        <f>VLOOKUP(F33,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>276</v>
       </c>
@@ -2368,13 +2651,17 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H34" t="str">
+        <f>VLOOKUP(F34,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>272</v>
       </c>
@@ -2389,13 +2676,17 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H35" t="str">
+        <f>VLOOKUP(F35,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>268</v>
       </c>
@@ -2410,13 +2701,17 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H36" t="str">
+        <f>VLOOKUP(F36,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>264</v>
       </c>
@@ -2431,13 +2726,17 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H37" t="str">
+        <f>VLOOKUP(F37,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>260</v>
       </c>
@@ -2457,8 +2756,12 @@
       <c r="F38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H38" t="str">
+        <f>VLOOKUP(F38,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>256</v>
       </c>
@@ -2473,13 +2776,17 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H39" t="str">
+        <f>VLOOKUP(F39,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>252</v>
       </c>
@@ -2494,13 +2801,17 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H40" t="str">
+        <f>VLOOKUP(F40,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>248</v>
       </c>
@@ -2515,13 +2826,17 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H41" t="str">
+        <f>VLOOKUP(F41,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>244</v>
       </c>
@@ -2536,13 +2851,17 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H42" t="str">
+        <f>VLOOKUP(F42,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>240</v>
       </c>
@@ -2562,8 +2881,12 @@
       <c r="F43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H43" t="str">
+        <f>VLOOKUP(F43,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>236</v>
       </c>
@@ -2583,8 +2906,12 @@
       <c r="F44" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H44" t="str">
+        <f>VLOOKUP(F44,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>232</v>
       </c>
@@ -2599,13 +2926,17 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H45" t="str">
+        <f>VLOOKUP(F45,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>228</v>
       </c>
@@ -2620,13 +2951,17 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H46" t="str">
+        <f>VLOOKUP(F46,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>224</v>
       </c>
@@ -2641,13 +2976,17 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H47" t="str">
+        <f>VLOOKUP(F47,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>220</v>
       </c>
@@ -2667,8 +3006,12 @@
       <c r="F48" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H48" t="str">
+        <f>VLOOKUP(F48,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>216</v>
       </c>
@@ -2683,13 +3026,17 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H49" t="str">
+        <f>VLOOKUP(F49,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>212</v>
       </c>
@@ -2704,13 +3051,17 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H50" t="str">
+        <f>VLOOKUP(F50,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>208</v>
       </c>
@@ -2725,13 +3076,17 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H51" t="str">
+        <f>VLOOKUP(F51,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>204</v>
       </c>
@@ -2746,13 +3101,17 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H52" t="str">
+        <f>VLOOKUP(F52,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>200</v>
       </c>
@@ -2772,8 +3131,12 @@
       <c r="F53" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H53" t="str">
+        <f>VLOOKUP(F53,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>196</v>
       </c>
@@ -2788,13 +3151,17 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H54" t="str">
+        <f>VLOOKUP(F54,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>192</v>
       </c>
@@ -2809,13 +3176,17 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H55" t="str">
+        <f>VLOOKUP(F55,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>188</v>
       </c>
@@ -2830,13 +3201,17 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H56" t="str">
+        <f>VLOOKUP(F56,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>184</v>
       </c>
@@ -2851,13 +3226,17 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H57" t="str">
+        <f>VLOOKUP(F57,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>180</v>
       </c>
@@ -2872,13 +3251,17 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H58" t="str">
+        <f>VLOOKUP(F58,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>176</v>
       </c>
@@ -2898,8 +3281,12 @@
       <c r="F59" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H59" t="str">
+        <f>VLOOKUP(F59,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -2914,13 +3301,17 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H60" t="str">
+        <f>VLOOKUP(F60,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
@@ -2935,13 +3326,17 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H61" t="str">
+        <f>VLOOKUP(F61,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>164</v>
       </c>
@@ -2956,13 +3351,17 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H62" t="str">
+        <f>VLOOKUP(F62,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>160</v>
       </c>
@@ -2977,13 +3376,17 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H63" t="str">
+        <f>VLOOKUP(F63,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>156</v>
       </c>
@@ -2998,13 +3401,17 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H64" t="str">
+        <f>VLOOKUP(F64,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
@@ -3019,13 +3426,17 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H65" t="str">
+        <f>VLOOKUP(F65,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>148</v>
       </c>
@@ -3040,13 +3451,17 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H66" t="str">
+        <f>VLOOKUP(F66,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>144</v>
       </c>
@@ -3061,13 +3476,17 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H67" t="str">
+        <f>VLOOKUP(F67,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>140</v>
       </c>
@@ -3082,13 +3501,17 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H68" t="str">
+        <f>VLOOKUP(F68,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -3103,13 +3526,17 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H69" t="str">
+        <f>VLOOKUP(F69,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>132</v>
       </c>
@@ -3129,8 +3556,12 @@
       <c r="F70" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H70" t="str">
+        <f>VLOOKUP(F70,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>128</v>
       </c>
@@ -3145,13 +3576,17 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H71" t="str">
+        <f>VLOOKUP(F71,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>124</v>
       </c>
@@ -3166,13 +3601,17 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H72" t="str">
+        <f>VLOOKUP(F72,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>120</v>
       </c>
@@ -3187,13 +3626,17 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H73" t="str">
+        <f>VLOOKUP(F73,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>116</v>
       </c>
@@ -3208,13 +3651,17 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H74" t="str">
+        <f>VLOOKUP(F74,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>112</v>
       </c>
@@ -3229,13 +3676,17 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H75" t="str">
+        <f>VLOOKUP(F75,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>108</v>
       </c>
@@ -3250,13 +3701,17 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H76" t="str">
+        <f>VLOOKUP(F76,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>104</v>
       </c>
@@ -3271,13 +3726,17 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H77" t="str">
+        <f>VLOOKUP(F77,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>100</v>
       </c>
@@ -3292,13 +3751,17 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H78" t="str">
+        <f>VLOOKUP(F78,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>96</v>
       </c>
@@ -3313,13 +3776,17 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H79" t="str">
+        <f>VLOOKUP(F79,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -3334,13 +3801,17 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H80" t="str">
+        <f>VLOOKUP(F80,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>88</v>
       </c>
@@ -3355,13 +3826,17 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H81" t="str">
+        <f>VLOOKUP(F81,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -3381,8 +3856,12 @@
       <c r="F82" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H82" t="str">
+        <f>VLOOKUP(F82,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
@@ -3397,13 +3876,17 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H83" t="str">
+        <f>VLOOKUP(F83,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>76</v>
       </c>
@@ -3418,13 +3901,17 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H84" t="str">
+        <f>VLOOKUP(F84,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>72</v>
       </c>
@@ -3444,8 +3931,12 @@
       <c r="F85" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H85" t="str">
+        <f>VLOOKUP(F85,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>68</v>
       </c>
@@ -3460,13 +3951,17 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H86" t="str">
+        <f>VLOOKUP(F86,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>64</v>
       </c>
@@ -3481,13 +3976,17 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H87" t="str">
+        <f>VLOOKUP(F87,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>60</v>
       </c>
@@ -3502,13 +4001,17 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H88" t="str">
+        <f>VLOOKUP(F88,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>56</v>
       </c>
@@ -3523,13 +4026,17 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H89" t="str">
+        <f>VLOOKUP(F89,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>52</v>
       </c>
@@ -3544,13 +4051,17 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H90" t="str">
+        <f>VLOOKUP(F90,학과정보!$A$2:$B$6,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>47</v>
       </c>
@@ -3570,8 +4081,12 @@
       <c r="F91" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H91" t="str">
+        <f>VLOOKUP(F91,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>43</v>
       </c>
@@ -3586,13 +4101,17 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H92" t="str">
+        <f>VLOOKUP(F92,학과정보!$A$2:$B$6,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>38</v>
       </c>
@@ -3612,8 +4131,12 @@
       <c r="F93" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H93" t="str">
+        <f>VLOOKUP(F93,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>34</v>
       </c>
@@ -3633,8 +4156,12 @@
       <c r="F94" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H94" t="str">
+        <f>VLOOKUP(F94,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>30</v>
       </c>
@@ -3654,8 +4181,12 @@
       <c r="F95" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H95" t="str">
+        <f>VLOOKUP(F95,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>26</v>
       </c>
@@ -3675,8 +4206,12 @@
       <c r="F96" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H96" t="str">
+        <f>VLOOKUP(F96,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>22</v>
       </c>
@@ -3691,13 +4226,17 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H97" t="str">
+        <f>VLOOKUP(F97,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>18</v>
       </c>
@@ -3712,13 +4251,17 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H98" t="str">
+        <f>VLOOKUP(F98,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>14</v>
       </c>
@@ -3733,13 +4276,17 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H99" t="str">
+        <f>VLOOKUP(F99,학과정보!$A$2:$B$6,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -3754,13 +4301,17 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H100" t="str">
+        <f>VLOOKUP(F100,학과정보!$A$2:$B$6,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>4</v>
       </c>
@@ -3779,6 +4330,10 @@
       </c>
       <c r="F101" t="s">
         <v>0</v>
+      </c>
+      <c r="H101" t="str">
+        <f>VLOOKUP(F101,학과정보!$A$2:$B$6,2)</f>
+        <v>D002</v>
       </c>
     </row>
   </sheetData>
@@ -3789,6 +4344,166 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f ca="1">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
+        <v>062-621-1421</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f t="shared" ref="E3:E6" ca="1" si="0">"062"&amp;TEXT(RANDBETWEEN(0,999999),"-000-0000")</f>
+        <v>062-047-0668</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-078-3522</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-042-1675</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-080-6401</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A5">
+    <sortCondition ref="A1:A5"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
@@ -3835,14 +4550,14 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-6889-8073</v>
+        <v>010-0177-8748</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>401</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -3857,14 +4572,14 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C14" ca="1" si="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-3578-8170</v>
+        <v>010-2995-3746</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>397</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -3879,14 +4594,14 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8549-8007</v>
+        <v>010-0211-0123</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>393</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -3901,14 +4616,14 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8707-4312</v>
+        <v>010-6208-8518</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>389</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -3923,14 +4638,14 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7927-2467</v>
+        <v>010-2644-6236</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>385</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -3945,14 +4660,14 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6889-1094</v>
+        <v>010-9719-9719</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>381</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -3967,14 +4682,14 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5135-0961</v>
+        <v>010-5789-9080</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>377</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -3989,14 +4704,14 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0774-3013</v>
+        <v>010-9160-0754</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>373</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -4011,14 +4726,14 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0379-2611</v>
+        <v>010-8168-6555</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>369</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -4033,14 +4748,14 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8824-8275</v>
+        <v>010-2366-7948</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>365</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -4055,14 +4770,14 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3295-1297</v>
+        <v>010-6578-3364</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>361</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -4077,14 +4792,14 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8428-6946</v>
+        <v>010-8302-7372</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>357</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -4099,14 +4814,14 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7606-3437</v>
+        <v>010-4964-2845</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>353</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -4127,7 +4842,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -4148,7 +4863,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -4169,7 +4884,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -4190,7 +4905,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -4211,7 +4926,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -4232,7 +4947,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -4253,7 +4968,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -4274,7 +4989,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -4295,7 +5010,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4316,7 +5031,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -4337,7 +5052,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -4358,7 +5073,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -4379,7 +5094,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -4400,7 +5115,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -4463,7 +5178,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -4505,7 +5220,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -4526,7 +5241,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -4568,7 +5283,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -4589,7 +5304,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -4610,7 +5325,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -4652,7 +5367,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -4694,7 +5409,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -4715,7 +5430,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -4736,7 +5451,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -4757,7 +5472,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -4778,7 +5493,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -4820,7 +5535,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -4862,7 +5577,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -4883,7 +5598,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -4904,7 +5619,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -4925,7 +5640,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -4946,7 +5661,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -4967,7 +5682,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -4988,7 +5703,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -5009,7 +5724,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -5030,7 +5745,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -5051,7 +5766,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -5072,7 +5787,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -5093,7 +5808,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -5114,7 +5829,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -5135,7 +5850,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -5156,7 +5871,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -5177,7 +5892,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -5198,7 +5913,7 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -5240,7 +5955,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -5261,7 +5976,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -5282,7 +5997,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -5303,7 +6018,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -5324,7 +6039,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -5345,7 +6060,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -5387,7 +6102,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -5408,7 +6123,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -5429,7 +6144,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -5450,7 +6165,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -5471,7 +6186,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -5513,7 +6228,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -5555,7 +6270,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -5576,7 +6291,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -5597,7 +6312,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -5618,7 +6333,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -5639,7 +6354,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -5660,7 +6375,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -5681,7 +6396,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -5702,7 +6417,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -5744,7 +6459,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -5765,7 +6480,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -5786,7 +6501,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -5807,7 +6522,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -5828,7 +6543,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -5849,7 +6564,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -5870,7 +6585,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -5891,7 +6606,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -5946,370 +6661,2538 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>391</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>367</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>363</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>335</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>331</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>327</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>307</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>303</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>279</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>243</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>231</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>219</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>191</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>163</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(50,100)</f>
+        <v>67</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:F21" ca="1" si="0">RANDBETWEEN(50,100)</f>
+        <v>68</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:F22" ca="1" si="1">RANDBETWEEN(50,100)</f>
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
         <v>99</v>
       </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
         <v>87</v>
       </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="F19">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23:F42" ca="1" si="2">RANDBETWEEN(50,100)</f>
+        <v>89</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="2"/>
         <v>83</v>
       </c>
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="E31">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="2"/>
         <v>79</v>
       </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="F37">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="2"/>
         <v>67</v>
       </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
+      <c r="D38">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43:F62" ca="1" si="3">RANDBETWEEN(50,100)</f>
+        <v>72</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ref="B63:F82" ca="1" si="4">RANDBETWEEN(50,100)</f>
+        <v>89</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="4"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="4"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ref="B83:F101" ca="1" si="5">RANDBETWEEN(50,100)</f>
+        <v>98</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="5"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ca="1" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="5"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="5"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="5"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="5"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="5"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ca="1" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="5"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="5"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="5"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ca="1" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="5"/>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
